--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -17269,237 +17269,237 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>26</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>8</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>26</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>9</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>26</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>10</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>26</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>11</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B325" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C325" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D325" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B326" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C326" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D326" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B327" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C327" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D327" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B328" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C328" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D328" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="F328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
+      <c r="D330" t="n">
         <v>0</v>
       </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G324" t="b">
@@ -17293,213 +17293,213 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
+      <c r="F328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
